--- a/Data/Assembly/Assembly_QV.xlsx
+++ b/Data/Assembly/Assembly_QV.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarashettp\Downloads\Projects\ARG\Data_Statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mile\Documents\ARG\git_v02_after_polishing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41D2531-CBE1-4EFF-B731-D0D99B297DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81CB29A6-BBFA-4B49-9503-E966F9FD6828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11A6415E-AD03-4CD4-BB82-4FC735A4184D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11A6415E-AD03-4CD4-BB82-4FC735A4184D}"/>
   </bookViews>
   <sheets>
     <sheet name="v0.2" sheetId="1" r:id="rId1"/>
+    <sheet name="v0.4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
   <si>
     <t>Chromosome</t>
   </si>
@@ -513,43 +514,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F391A134-05AC-4D8E-94DF-04AE0059EA09}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -563,7 +564,7 @@
         <v>56.573</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -577,7 +578,7 @@
         <v>55.067</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -591,7 +592,7 @@
         <v>57.719000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -605,7 +606,7 @@
         <v>54.343000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -619,7 +620,7 @@
         <v>56.433999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -633,7 +634,7 @@
         <v>58.139000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -647,7 +648,7 @@
         <v>55.402000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -661,7 +662,7 @@
         <v>55.075000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -675,7 +676,7 @@
         <v>55.238</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -689,7 +690,7 @@
         <v>54.018999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -703,7 +704,7 @@
         <v>55.515999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -717,7 +718,7 @@
         <v>55.448999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -731,7 +732,7 @@
         <v>56.247999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -745,7 +746,7 @@
         <v>56.704000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -759,7 +760,7 @@
         <v>55.807000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -773,7 +774,7 @@
         <v>56.145000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -787,7 +788,7 @@
         <v>60.603999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -801,7 +802,7 @@
         <v>59.073999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -815,7 +816,7 @@
         <v>53.456000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -829,7 +830,7 @@
         <v>51.752000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -843,7 +844,7 @@
         <v>55.424999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -857,7 +858,7 @@
         <v>55.863</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -869,6 +870,377 @@
       </c>
       <c r="E25" s="1">
         <v>51.576000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16D4258-8237-4576-A252-43F96DB0827F}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>76.579099999999997</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>76.165999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>75.449799999999996</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>77.067599999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>73.994799999999998</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>74.233699999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>64.846999999999994</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>68.525400000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>73.046599999999998</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>75.893299999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>74.481899999999996</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>76.338399999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>71.362399999999994</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>74.559399999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>70.205200000000005</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>73.694699999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>78.156400000000005</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>70.241399999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>72.918400000000005</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>70.537000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>69.068799999999996</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
+        <v>71.054199999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>75.366100000000003</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1">
+        <v>72.277799999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>72.318100000000001</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1">
+        <v>75.260900000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>77.300600000000003</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1">
+        <v>69.740799999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>67.067700000000002</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1">
+        <v>69.599500000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>68.101699999999994</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1">
+        <v>69.806600000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>71.590900000000005</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1">
+        <v>74.905900000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>72.790000000000006</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1">
+        <v>79.746899999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66.382199999999997</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1">
+        <v>66.472999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>80.152100000000004</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1">
+        <v>71.501300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>72.131900000000002</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1">
+        <v>71.579599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>72.392300000000006</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1">
+        <v>70.536100000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>68.872900000000001</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1">
+        <v>76.927000000000007</v>
       </c>
     </row>
   </sheetData>
